--- a/data-raw/DeltaEntry_ReleaseRaw.xlsx
+++ b/data-raw/DeltaEntry_ReleaseRaw.xlsx
@@ -583,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -598,16 +598,14 @@
     <col customWidth="true" min="5" max="5" width="36.03515625"/>
     <col customWidth="true" min="6" max="6" width="19.921875"/>
     <col customWidth="true" min="7" max="7" width="38.96484375"/>
-    <col customWidth="true" min="8" max="8" width="38.96484375"/>
-    <col customWidth="true" min="9" max="9" width="16.2578125"/>
-    <col customWidth="true" min="10" max="10" width="13.62109375"/>
-    <col customWidth="true" min="11" max="11" width="23.875"/>
-    <col customWidth="true" min="12" max="12" width="11.86328125"/>
-    <col customWidth="true" min="13" max="13" width="22.1171875"/>
-    <col customWidth="true" min="14" max="14" width="19.921875"/>
-    <col customWidth="true" min="15" max="15" width="30.76171875"/>
-    <col customWidth="true" min="16" max="16" width="14.0625"/>
-    <col customWidth="true" min="17" max="17" width="19.921875"/>
+    <col customWidth="true" min="8" max="8" width="16.2578125"/>
+    <col customWidth="true" min="9" max="9" width="13.62109375"/>
+    <col customWidth="true" min="10" max="10" width="23.875"/>
+    <col customWidth="true" min="11" max="11" width="11.86328125"/>
+    <col customWidth="true" min="12" max="12" width="22.1171875"/>
+    <col customWidth="true" min="13" max="13" width="19.921875"/>
+    <col customWidth="true" min="14" max="14" width="30.76171875"/>
+    <col customWidth="true" min="15" max="15" width="19.921875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -643,55 +641,45 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>sourceOfFishSite</t>
+          <t>releaseSite</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>releaseSite</t>
+          <t>releaseSubSite</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>releaseSubSite</t>
+          <t>nReleased</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>nReleased</t>
+          <t>releaseTime</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>releaseTime</t>
+          <t>testDays</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>testDays</t>
+          <t>appliedMarkType</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>appliedMarkType</t>
+          <t>appliedMarkColor</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>appliedMarkColor</t>
+          <t>appliedMarkPosition</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>appliedMarkPosition</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>appliedMarkCode</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>includeAnalysis</t>
         </is>
@@ -726,49 +714,39 @@
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
+          <t>Lower Sacramento River Release Site</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>Lower Sacramento River Release Site</t>
-        </is>
-      </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="5">
         <v>487</v>
       </c>
-      <c r="K2" s="7">
+      <c r="J2" s="7">
         <v>44658.5522569444</v>
       </c>
-      <c r="L2" s="8">
+      <c r="K2" s="8">
         <v>7</v>
       </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
       <c r="M2" s="9" t="inlineStr">
         <is>
-          <t>Pigment / dye</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="N2" s="9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Whole body</t>
         </is>
       </c>
       <c r="O2" s="9" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
-      <c r="P2" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q2" s="9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -803,49 +781,39 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
+          <t>Lower Sacramento River Release Site</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>Lower Sacramento River Release Site</t>
-        </is>
-      </c>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="5">
         <v>499</v>
       </c>
-      <c r="K3" s="7">
+      <c r="J3" s="7">
         <v>44664.5522569444</v>
       </c>
-      <c r="L3" s="8">
+      <c r="K3" s="8">
         <v>7</v>
       </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
       <c r="M3" s="9" t="inlineStr">
         <is>
-          <t>Pigment / dye</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Whole body</t>
         </is>
       </c>
       <c r="O3" s="9" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
-      <c r="P3" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q3" s="9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -880,49 +848,39 @@
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
+          <t>Lower Sacramento River Release Site</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>Lower Sacramento River Release Site</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="5">
         <v>498</v>
       </c>
-      <c r="K4" s="7">
+      <c r="J4" s="7">
         <v>44671.5869791667</v>
       </c>
-      <c r="L4" s="8">
+      <c r="K4" s="8">
         <v>7</v>
       </c>
+      <c r="L4" s="9" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
       <c r="M4" s="9" t="inlineStr">
         <is>
-          <t>Pigment / dye</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="N4" s="9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Whole body</t>
         </is>
       </c>
       <c r="O4" s="9" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
-      <c r="P4" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q4" s="9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -957,49 +915,39 @@
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
+          <t>Lower Sacramento River Release Site</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>Lower Sacramento River Release Site</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" s="5">
         <v>496</v>
       </c>
-      <c r="K5" s="7">
+      <c r="J5" s="7">
         <v>44678.5835069444</v>
       </c>
-      <c r="L5" s="8">
+      <c r="K5" s="8">
         <v>34</v>
       </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
       <c r="M5" s="9" t="inlineStr">
         <is>
-          <t>Pigment / dye</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="N5" s="9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Whole body</t>
         </is>
       </c>
       <c r="O5" s="9" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
-      <c r="P5" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q5" s="9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
